--- a/Lecture/Nanoelectronika/Present/Gastvortrag_ausländische Person-1_DAAD Ukraine_Olikh_Oleg.xlsx
+++ b/Lecture/Nanoelectronika/Present/Gastvortrag_ausländische Person-1_DAAD Ukraine_Olikh_Oleg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e24c4f967cda56c0/Desktop/Gastvortrag_ausländische Person-1_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\Nanoelectronica\Present\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_4DEF4A6E3C0D87351E1E806281277D8E6A5F00A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7ED4B99-8177-4BB1-977C-71B32422CB10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B457AF4-2A06-4DC2-A62A-2ACF7A43A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,17 @@
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Abrechnung!#REF!</definedName>
     <definedName name="Fakultäten">Tabelle5!$A$1:$A$19</definedName>
+    <definedName name="Steuersatz">Tabelle5!$C$1:$C$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Abrechnung!$A$1:$R$53</definedName>
-    <definedName name="Steuersatz">Tabelle5!$C$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
   <si>
     <t>Professur:</t>
   </si>
@@ -471,6 +468,18 @@
   </si>
   <si>
     <t>25.10.22-08.11.22</t>
+  </si>
+  <si>
+    <t>pr.Mayakovskogo, 32</t>
+  </si>
+  <si>
+    <t>02222, Kyiv</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>05.06.1974 / Kyiv, Ukraine</t>
   </si>
 </sst>
 </file>
@@ -1482,177 +1491,166 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1673,52 +1671,44 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1744,26 +1734,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1777,6 +1781,35 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1789,10 +1822,63 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1803,124 +1889,28 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2835,118 +2825,118 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="48" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="50" t="b">
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="53" t="b">
+      <c r="J4" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="50" t="b">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="53" t="b">
+      <c r="J5" s="49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="50" t="b">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="53" t="b">
+      <c r="J6" s="49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="54"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2960,10 +2950,10 @@
   <sheetPr codeName="Tabelle1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:O34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2983,113 +2973,113 @@
     <col min="13" max="13" width="3.109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="4.33203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="36" customWidth="1"/>
-    <col min="18" max="18" width="73" style="33" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="13"/>
-    <col min="20" max="20" width="53.5546875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="73" style="29" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="2"/>
+    <col min="20" max="20" width="53.5546875" style="2" customWidth="1"/>
     <col min="21" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="164" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="165"/>
-      <c r="S1" s="33"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3"/>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="107" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="170"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="72" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="33"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="17"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="33"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="33"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="33"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="173"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="175"/>
-      <c r="Q6" s="177" t="s">
+      <c r="L6" s="134"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="136"/>
+      <c r="Q6" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="178"/>
-      <c r="S6" s="33"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="33"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="8" t="s">
         <v>75</v>
       </c>
@@ -3097,852 +3087,875 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="56"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="72" t="s">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="74"/>
-      <c r="S8" s="33"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="68"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="12"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="128" t="s">
+      <c r="J9" s="104"/>
+      <c r="K9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="114"/>
-      <c r="M9" s="37"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="33"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="140" t="s">
+      <c r="I10" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="33"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="68"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="12" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="33"/>
+      <c r="I11" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="68"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="33"/>
+      <c r="I12" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="15"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="12" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="33"/>
+      <c r="I13" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="58" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="54" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="72" t="s">
+      <c r="I14" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="74"/>
-      <c r="S14" s="33"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="129" t="s">
+      <c r="A15" s="15"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="148" t="s">
+      <c r="J15" s="105"/>
+      <c r="K15" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="149"/>
-      <c r="M15" s="150" t="s">
+      <c r="L15" s="163"/>
+      <c r="M15" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="150"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="73" t="s">
+      <c r="N15" s="164"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="S15" s="33"/>
+      <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="68"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="75" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="68"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="69"/>
+      <c r="S16" s="29"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="62"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="119" t="s">
+      <c r="I17" s="96"/>
+      <c r="J17" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="33"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="68"/>
-      <c r="E18" s="146" t="s">
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="29"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="62"/>
+      <c r="E18" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="72" t="s">
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="R18" s="136" t="s">
+      <c r="R18" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="33"/>
-    </row>
-    <row r="19" spans="1:20" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="172" t="s">
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" spans="1:19" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="33"/>
-    </row>
-    <row r="20" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="33"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+      <c r="P20" s="19"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="F21" s="143" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="F21" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="145"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="33"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="143"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="29"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="F22" s="143" t="s">
+      <c r="D22" s="19"/>
+      <c r="F22" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="145"/>
-      <c r="Q22" s="113" t="s">
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="143"/>
+      <c r="Q22" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="179" t="s">
+      <c r="R22" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="S22" s="33"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="S22" s="29"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="144" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="154" t="s">
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="181" t="s">
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="182"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="180"/>
-      <c r="S23" s="33"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="O23" s="147"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="F24" s="143" t="s">
+      <c r="F24" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="145"/>
-      <c r="Q24" s="110" t="s">
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="143"/>
+      <c r="Q24" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="R24" s="73" t="s">
+      <c r="R24" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="S24" s="33"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="144" t="s">
+      <c r="S24" s="29"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="145"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="33"/>
-    </row>
-    <row r="26" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="143"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="29"/>
+    </row>
+    <row r="26" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
       <c r="N26" s="6"/>
       <c r="O26" s="7"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="33"/>
-    </row>
-    <row r="27" spans="1:20" s="15" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="Q26" s="66"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="29"/>
+    </row>
+    <row r="27" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="106" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="102"/>
-      <c r="O27" s="131" t="s">
+      <c r="N27" s="93"/>
+      <c r="O27" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="31"/>
-    </row>
-    <row r="28" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="30"/>
+    </row>
+    <row r="28" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="106" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="102"/>
-      <c r="O28" s="131" t="s">
+      <c r="N28" s="93"/>
+      <c r="O28" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="31"/>
-    </row>
-    <row r="29" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="27"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="33"/>
-    </row>
-    <row r="30" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="17"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="33"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="30"/>
+    </row>
+    <row r="29" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="18"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="29"/>
+    </row>
+    <row r="30" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="16"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="88" t="s">
+      <c r="K31" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="33"/>
-    </row>
-    <row r="32" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q32" s="72"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="33"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="66"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="29"/>
+    </row>
+    <row r="32" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="66"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="29"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="132">
+      <c r="I33" s="119">
         <v>247.5</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="140">
+      <c r="L33" s="130">
         <v>54753</v>
       </c>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="161"/>
-      <c r="Q33" s="163" t="s">
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="138"/>
+      <c r="Q33" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="R33" s="136" t="s">
+      <c r="R33" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="S33" s="33"/>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="29"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="103">
+      <c r="I34" s="94">
         <v>0</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="140">
+      <c r="L34" s="130">
         <v>64</v>
       </c>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="161"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="137"/>
-      <c r="S34" s="33"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="138"/>
+      <c r="Q34" s="152"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="29"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="104">
+      <c r="I35" s="95">
         <v>0</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="140">
+      <c r="L35" s="130">
         <v>219564</v>
       </c>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="161"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="137"/>
-      <c r="S35" s="33"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83" t="s">
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="138"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="29"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84" t="s">
+      <c r="B36" s="76"/>
+      <c r="C36" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="87">
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80">
         <f>SUM(I33:I35)</f>
         <v>247.5</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="167">
+      <c r="L36" s="125">
         <v>212058</v>
       </c>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="33"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="82"/>
-      <c r="K37" s="162" t="s">
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="29"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="75"/>
+      <c r="K37" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="138"/>
-      <c r="S37" s="33"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="66"/>
-      <c r="I38" s="67"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="33"/>
-    </row>
-    <row r="39" spans="1:20" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q39" s="76"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="158"/>
+      <c r="S37" s="29"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="159"/>
+      <c r="S38" s="29"/>
+    </row>
+    <row r="39" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39" s="69"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="29"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="33"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="29"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="28" t="s">
+      <c r="C41" s="141"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="139"/>
-      <c r="S41" s="33"/>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q41" s="69"/>
+      <c r="R41" s="159"/>
+      <c r="S41" s="29"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="28" t="s">
+      <c r="C42" s="141"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="139"/>
-      <c r="S42" s="33"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q42" s="69"/>
+      <c r="R42" s="159"/>
+      <c r="S42" s="29"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="145"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="143"/>
       <c r="J43" s="5"/>
       <c r="N43" s="2"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="139"/>
-      <c r="S43" s="33"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q44" s="76"/>
-      <c r="R44" s="139"/>
-      <c r="S44" s="33"/>
-    </row>
-    <row r="45" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="158"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="160"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="157"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="33"/>
-    </row>
-    <row r="46" spans="1:20" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="Q43" s="69"/>
+      <c r="R43" s="159"/>
+      <c r="S43" s="29"/>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q44" s="69"/>
+      <c r="R44" s="159"/>
+      <c r="S44" s="29"/>
+    </row>
+    <row r="45" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="148"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="150"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="29"/>
+    </row>
+    <row r="46" spans="1:19" s="14" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="21"/>
-      <c r="H46" s="24" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="20"/>
+      <c r="H46" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I46" s="24"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="31"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="30"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="33"/>
-    </row>
-    <row r="48" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="155"/>
-      <c r="B48" s="156"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="157"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="157"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="21"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="33"/>
-    </row>
-    <row r="49" spans="1:20" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="Q47" s="70"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="29"/>
+    </row>
+    <row r="48" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="120"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="121"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="121"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="20"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="29"/>
+    </row>
+    <row r="49" spans="1:19" s="14" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="H49" s="15" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="H49" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="L49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="74"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="31"/>
-    </row>
-    <row r="50" spans="1:20" s="15" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="I50" s="26"/>
-      <c r="L50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="31"/>
-    </row>
-    <row r="51" spans="1:20" s="15" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="133" t="s">
+      <c r="I49" s="25"/>
+      <c r="L49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="30"/>
+    </row>
+    <row r="50" spans="1:19" s="14" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="I50" s="25"/>
+      <c r="L50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="30"/>
+    </row>
+    <row r="51" spans="1:19" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="135"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="31"/>
-    </row>
-    <row r="52" spans="1:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="55"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="21"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="33"/>
-    </row>
-    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="30"/>
+    </row>
+    <row r="52" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="51"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="20"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="29"/>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EQdGtbwfomgBmrqd4rCY8C25ZQfMJ8TvrH/g3MKOpjCfrtQWXxINHq7RUOGzwjtzi/wijAMkps7dkxOLTLwcdw==" saltValue="hQcqZdh9fKIGGGmu3qWGQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="R41:R44"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="F22:O22"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K37:O38"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="R27:R29"/>
@@ -3959,30 +3972,6 @@
     <mergeCell ref="F21:O21"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K37:O38"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="R33:R37"/>
-    <mergeCell ref="R41:R44"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="F22:O22"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="F25:O25"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O16"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4207,7 +4196,7 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4215,7 +4204,7 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -4223,7 +4212,7 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>0.19</v>
       </c>
     </row>
@@ -4288,7 +4277,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="35" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Lecture/Nanoelectronika/Present/Gastvortrag_ausländische Person-1_DAAD Ukraine_Olikh_Oleg.xlsx
+++ b/Lecture/Nanoelectronika/Present/Gastvortrag_ausländische Person-1_DAAD Ukraine_Olikh_Oleg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\Nanoelectronica\Present\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\NMK\Lecture\Nanoelectronika\Present\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B457AF4-2A06-4DC2-A62A-2ACF7A43A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CAEB1C-B9FD-4B94-862A-91AB7826F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontrollkästchen" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>Professur:</t>
   </si>
@@ -480,6 +480,18 @@
   </si>
   <si>
     <t>05.06.1974 / Kyiv, Ukraine</t>
+  </si>
+  <si>
+    <t>Kyiv, 04.11.22</t>
+  </si>
+  <si>
+    <t>UA363052990262046400940487203</t>
+  </si>
+  <si>
+    <t>PBANUA2X</t>
+  </si>
+  <si>
+    <t>JSC CB PRIVATBANK, 1D HRUSHEVSKOHO STR., KYIV, UKRAINE</t>
   </si>
 </sst>
 </file>
@@ -1734,14 +1746,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1769,18 +1881,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1800,27 +1900,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1836,81 +1920,9 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1970,15 +1982,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2037,15 +2049,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2104,13 +2116,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>350520</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2171,15 +2183,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2287,15 +2299,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2356,13 +2368,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2421,15 +2433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2488,15 +2500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2822,15 +2834,15 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>65</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>63</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39" t="s">
@@ -2888,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
         <v>62</v>
       </c>
@@ -2908,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2924,7 +2936,7 @@
       </c>
       <c r="J7" s="49"/>
     </row>
-    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -2938,7 +2950,7 @@
       <c r="I8" s="43"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2952,36 +2964,36 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:O14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="3.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="32" customWidth="1"/>
     <col min="18" max="18" width="73" style="29" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="2"/>
-    <col min="20" max="20" width="53.5546875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="2"/>
+    <col min="19" max="19" width="11.42578125" style="2"/>
+    <col min="20" max="20" width="53.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="J1" s="18"/>
@@ -2990,13 +3002,13 @@
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
       <c r="P1" s="34"/>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="123"/>
+      <c r="R1" s="152"/>
       <c r="S1" s="29"/>
     </row>
-    <row r="2" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
       <c r="E2" s="57" t="s">
         <v>86</v>
@@ -3006,8 +3018,8 @@
       <c r="M2" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="158"/>
       <c r="P2" s="31"/>
       <c r="Q2" s="66" t="s">
         <v>58</v>
@@ -3017,7 +3029,7 @@
       </c>
       <c r="S2" s="29"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="E3" s="29" t="s">
         <v>74</v>
@@ -3028,14 +3040,14 @@
       <c r="R3" s="67"/>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="E4" s="4"/>
       <c r="Q4" s="66"/>
       <c r="R4" s="67"/>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -3043,21 +3055,21 @@
       <c r="R5" s="67"/>
       <c r="S5" s="29"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="134"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="136"/>
-      <c r="Q6" s="139" t="s">
+      <c r="L6" s="160"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="162"/>
+      <c r="Q6" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="140"/>
+      <c r="R6" s="165"/>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E7" s="82" t="s">
         <v>73</v>
       </c>
@@ -3075,7 +3087,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -3100,7 +3112,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="29"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3124,7 +3136,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="29"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -3134,21 +3146,21 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="130" t="s">
+      <c r="I10" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="67"/>
       <c r="S10" s="29"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3158,21 +3170,21 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="130" t="s">
+      <c r="I11" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="129"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="67"/>
       <c r="S11" s="29"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>93</v>
       </c>
@@ -3182,21 +3194,21 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="132"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="129"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="67"/>
       <c r="S12" s="29"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="D13" s="62"/>
       <c r="E13" s="12" t="s">
@@ -3204,21 +3216,21 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="130" t="s">
+      <c r="I13" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="132"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="67"/>
       <c r="S13" s="29"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -3229,15 +3241,15 @@
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="130" t="s">
+      <c r="I14" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="132"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="129"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="66" t="s">
         <v>105</v>
@@ -3245,7 +3257,7 @@
       <c r="R14" s="67"/>
       <c r="S14" s="29"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="D15" s="62"/>
       <c r="E15" s="65"/>
@@ -3256,15 +3268,15 @@
         <v>87</v>
       </c>
       <c r="J15" s="105"/>
-      <c r="K15" s="162" t="s">
+      <c r="K15" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="163"/>
-      <c r="M15" s="164" t="s">
+      <c r="L15" s="136"/>
+      <c r="M15" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="164"/>
-      <c r="O15" s="165"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="67" t="s">
@@ -3272,7 +3284,7 @@
       </c>
       <c r="S15" s="29"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D16" s="62"/>
       <c r="E16" s="88"/>
       <c r="F16" s="89"/>
@@ -3283,9 +3295,9 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="167"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="87"/>
       <c r="R16" s="68" t="s">
@@ -3293,7 +3305,7 @@
       </c>
       <c r="S16" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D17" s="62"/>
       <c r="E17" s="85"/>
       <c r="F17" s="86"/>
@@ -3313,17 +3325,17 @@
       <c r="R17" s="68"/>
       <c r="S17" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="62"/>
-      <c r="E18" s="160" t="s">
+      <c r="E18" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
       <c r="L18" s="109"/>
       <c r="M18" s="110"/>
       <c r="N18" s="111"/>
@@ -3332,31 +3344,31 @@
       <c r="Q18" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="R18" s="156" t="s">
+      <c r="R18" s="123" t="s">
         <v>91</v>
       </c>
       <c r="S18" s="29"/>
     </row>
-    <row r="19" spans="1:19" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="133" t="s">
+    <row r="19" spans="1:19" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="102"/>
-      <c r="R19" s="158"/>
+      <c r="R19" s="125"/>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3366,96 +3378,96 @@
       <c r="R20" s="68"/>
       <c r="S20" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
-      <c r="F21" s="141" t="s">
+      <c r="F21" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="143"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="132"/>
       <c r="Q21" s="66"/>
       <c r="R21" s="68"/>
       <c r="S21" s="29"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="F22" s="141" t="s">
+      <c r="F22" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="143"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
       <c r="Q22" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="144" t="s">
+      <c r="R22" s="166" t="s">
         <v>103</v>
       </c>
       <c r="S22" s="29"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="142" t="s">
+      <c r="F23" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="168" t="s">
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="146" t="s">
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="147"/>
+      <c r="O23" s="169"/>
       <c r="Q23" s="101"/>
-      <c r="R23" s="145"/>
+      <c r="R23" s="167"/>
       <c r="S23" s="29"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="F24" s="141" t="s">
+      <c r="F24" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="143"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="132"/>
       <c r="Q24" s="66" t="s">
         <v>99</v>
       </c>
@@ -3464,29 +3476,29 @@
       </c>
       <c r="S24" s="29"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
-      <c r="F25" s="142" t="s">
+      <c r="F25" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="143"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="132"/>
       <c r="Q25" s="66"/>
       <c r="R25" s="67"/>
       <c r="S25" s="29"/>
     </row>
-    <row r="26" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
       <c r="N26" s="6"/>
@@ -3495,7 +3507,7 @@
       <c r="R26" s="67"/>
       <c r="S26" s="29"/>
     </row>
-    <row r="27" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>28</v>
       </c>
@@ -3513,10 +3525,10 @@
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="66"/>
-      <c r="R27" s="124"/>
+      <c r="R27" s="153"/>
       <c r="S27" s="30"/>
     </row>
-    <row r="28" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
@@ -3534,10 +3546,10 @@
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="66"/>
-      <c r="R28" s="124"/>
+      <c r="R28" s="153"/>
       <c r="S28" s="30"/>
     </row>
-    <row r="29" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J29" s="18"/>
       <c r="K29" s="33"/>
       <c r="L29" s="89"/>
@@ -3546,10 +3558,10 @@
       <c r="O29" s="92"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="66"/>
-      <c r="R29" s="124"/>
+      <c r="R29" s="153"/>
       <c r="S29" s="29"/>
     </row>
-    <row r="30" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
       <c r="M30" s="16"/>
@@ -3559,7 +3571,7 @@
       <c r="R30" s="67"/>
       <c r="S30" s="29"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>7</v>
       </c>
@@ -3570,12 +3582,12 @@
       <c r="R31" s="67"/>
       <c r="S31" s="29"/>
     </row>
-    <row r="32" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q32" s="66"/>
       <c r="R32" s="67"/>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -3585,21 +3597,21 @@
       <c r="K33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="130">
+      <c r="L33" s="127">
         <v>54753</v>
       </c>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="138"/>
-      <c r="Q33" s="152" t="s">
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="148"/>
+      <c r="Q33" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="R33" s="156" t="s">
+      <c r="R33" s="123" t="s">
         <v>104</v>
       </c>
       <c r="S33" s="29"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -3615,17 +3627,17 @@
       <c r="K34" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="130">
+      <c r="L34" s="127">
         <v>64</v>
       </c>
-      <c r="M34" s="131"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="138"/>
-      <c r="Q34" s="152"/>
-      <c r="R34" s="157"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="148"/>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="124"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -3641,17 +3653,17 @@
       <c r="K35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="130">
+      <c r="L35" s="127">
         <v>219564</v>
       </c>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="138"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="148"/>
       <c r="Q35" s="66"/>
-      <c r="R35" s="157"/>
+      <c r="R35" s="124"/>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>90</v>
       </c>
@@ -3674,18 +3686,18 @@
       <c r="K36" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="125">
+      <c r="L36" s="154">
         <v>212058</v>
       </c>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="127"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="156"/>
       <c r="P36" s="58"/>
       <c r="Q36" s="66"/>
-      <c r="R36" s="157"/>
+      <c r="R36" s="124"/>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -3695,35 +3707,35 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="75"/>
-      <c r="K37" s="151" t="s">
+      <c r="K37" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
       <c r="Q37" s="69"/>
-      <c r="R37" s="158"/>
+      <c r="R37" s="125"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D38" s="60"/>
       <c r="I38" s="61"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="149"/>
       <c r="Q38" s="69"/>
-      <c r="R38" s="159"/>
+      <c r="R38" s="126"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="69"/>
-      <c r="R39" s="159"/>
+      <c r="R39" s="126"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>11</v>
       </c>
@@ -3746,80 +3758,88 @@
       <c r="R40" s="68"/>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="143"/>
+      <c r="C41" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="132"/>
       <c r="J41" s="26" t="s">
         <v>33</v>
       </c>
       <c r="Q41" s="69"/>
-      <c r="R41" s="159"/>
+      <c r="R41" s="126"/>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="143"/>
+      <c r="C42" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="132"/>
       <c r="J42" s="26" t="s">
         <v>34</v>
       </c>
       <c r="N42" s="2"/>
       <c r="Q42" s="69"/>
-      <c r="R42" s="159"/>
+      <c r="R42" s="126"/>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="143"/>
+      <c r="C43" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="132"/>
       <c r="J43" s="5"/>
       <c r="N43" s="2"/>
       <c r="Q43" s="69"/>
-      <c r="R43" s="159"/>
+      <c r="R43" s="126"/>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q44" s="69"/>
-      <c r="R44" s="159"/>
+      <c r="R44" s="126"/>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="148"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="150"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
+    <row r="45" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="145" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="144"/>
       <c r="Q45" s="69"/>
       <c r="R45" s="67"/>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:19" s="14" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>14</v>
       </c>
@@ -3840,20 +3860,20 @@
       <c r="R46" s="67"/>
       <c r="S46" s="30"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
       <c r="Q47" s="70"/>
       <c r="R47" s="71"/>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="120"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="121"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121"/>
+    <row r="48" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="142"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="144"/>
       <c r="L48" s="20"/>
       <c r="M48" s="14"/>
       <c r="N48" s="20"/>
@@ -3861,7 +3881,7 @@
       <c r="R48" s="67"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" s="14" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>98</v>
       </c>
@@ -3878,7 +3898,7 @@
       <c r="R49" s="67"/>
       <c r="S49" s="30"/>
     </row>
-    <row r="50" spans="1:19" s="14" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -3890,30 +3910,30 @@
       <c r="R50" s="100"/>
       <c r="S50" s="30"/>
     </row>
-    <row r="51" spans="1:19" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="153" t="s">
+    <row r="51" spans="1:19" s="14" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="154"/>
-      <c r="N51" s="154"/>
-      <c r="O51" s="155"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="122"/>
       <c r="P51" s="25"/>
       <c r="Q51" s="99"/>
       <c r="R51" s="100"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="51"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -3924,7 +3944,7 @@
       <c r="R52" s="73"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
@@ -3932,6 +3952,30 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EQdGtbwfomgBmrqd4rCY8C25ZQfMJ8TvrH/g3MKOpjCfrtQWXxINHq7RUOGzwjtzi/wijAMkps7dkxOLTLwcdw==" saltValue="hQcqZdh9fKIGGGmu3qWGQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K37:O38"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="A51:O51"/>
     <mergeCell ref="R33:R37"/>
     <mergeCell ref="R41:R44"/>
@@ -3948,30 +3992,6 @@
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K37:O38"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3994,15 +4014,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4016,15 +4036,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>182880</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4038,13 +4058,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>350520</xdr:colOff>
+                    <xdr:colOff>352425</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -4060,15 +4080,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>45720</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4082,15 +4102,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>175260</xdr:rowOff>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4106,13 +4126,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>182880</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4126,15 +4146,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4148,15 +4168,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>137160</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>14</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4178,13 +4198,13 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -4192,7 +4212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -4200,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -4208,7 +4228,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4216,77 +4236,77 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
